--- a/publipostage/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,32 +493,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NCT02923297</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>NCT02922114</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GALIG Gene Expression in Parkinson's Disease</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>GALIGPARK</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+          <t>Comparison of the Clinical Examination and the Joint Ultrasonography in the Evaluation of Disease Activity in Systemic Lupus Patients</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>LUPUS</t>
+        </is>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -525,32 +535,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT02922114</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT02923297</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Comparison of the Clinical Examination and the Joint Ultrasonography in the Evaluation of Disease Activity in Systemic Lupus Patients</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LUPUS</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+          <t>GALIG Gene Expression in Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>GALIGPARK</t>
+        </is>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -562,34 +577,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT02185989</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Early Rehabilitation Combining Daily Electrical Muscle Stimulation and Early Bedside Cycling Exercise, Compared to Early Standard Rehabilitation. A Randomized, Assessor-blinded, Single-center Study in Intensive Care Patients.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>PROMOREA1</t>
         </is>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
       </c>
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT03095677</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT03095690</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Acute and Chronic Effects of Dynamic Apnea in Healthy Untrained Subjects</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>APNEX</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
+          <t>Determinants of Volumetric Bone Mineral Density at the Tibia and Radius and it's Relationship With Osteoporotic Fractures in Idiopathic Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DOPPA</t>
+        </is>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,144 +661,164 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT03095690</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT03095677</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Determinants of Volumetric Bone Mineral Density at the Tibia and Radius and it's Relationship With Osteoporotic Fractures in Idiopathic Parkinson's Disease</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DOPPA</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
+          <t>Acute and Chronic Effects of Dynamic Apnea in Healthy Untrained Subjects</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>APNEX</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NCT03299894</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>NCT03316625</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Usefulness of Routine qSOFA Calculation at Triage to Fasten Antimicrobial Administration in Patients With Bacterial Infection in the Emergency Department: a Quasi-experimental Study</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>qSOFAST</t>
-        </is>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
+          <t>Reference Curve on Bone Mineral Density in Young Adult: French Multicenter Study</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>COURDO</t>
+        </is>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT03316625</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT03299894</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Reference Curve on Bone Mineral Density in Young Adult: French Multicenter Study</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>COURDO</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
+          <t>Usefulness of Routine qSOFA Calculation at Triage to Fasten Antimicrobial Administration in Patients With Bacterial Infection in the Emergency Department: a Quasi-experimental Study</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>qSOFAST</t>
+        </is>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT03398525</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT03497078</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Effect of a Musical Intervention in the Intensive Care Unit During the Implantation of a Central Venous Access or a Dialysis Catheter: A Prospective, Randomized Pilot Study</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MUSIC-CAT</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
+          <t>Comparison of Image Quality Between New Collimator LEHRS (General Electric - GE Healthcare) vs Siemens LEHR on Bone Scintigraphy</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>LEHRS</t>
+        </is>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -784,32 +829,37 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT03479047</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT03423004</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>CODEX</t>
-        </is>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
+          <t>Comparative Study of Molecular Markers in Cutaneous Inflammation Between Psoriatic Lesional Skin and Healthy Non-lesional Skin</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>EMIP</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -821,144 +871,164 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>NCT03470116</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>MILAR, is a Controlled, Randomised, Comparative, Prospective, Multi-center, Superiority French Clinical Trial Comparing the MacGrath MAC Videolaryngoscope and the MacIntosh Laryngoscope for Oro-tracheal Intubation by Patients With Less Than 2 Criteria of Difficult Intubation in Elective Surgery.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>MILAR</t>
         </is>
       </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT03423004</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT03398525</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Comparative Study of Molecular Markers in Cutaneous Inflammation Between Psoriatic Lesional Skin and Healthy Non-lesional Skin</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>EMIP</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
+          <t>Effect of a Musical Intervention in the Intensive Care Unit During the Implantation of a Central Venous Access or a Dialysis Catheter: A Prospective, Randomized Pilot Study</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>MUSIC-CAT</t>
+        </is>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT03829293</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT03479047</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>High-Flow Nasal Oxygenation Versus Standard Oxygenation in Gastrointestinal Endoscopy With Sedation. A Prospective Multicenter Randomized Study</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ODEPHI</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
+          <t>Mechanical Ventilation Weaning Prediction Improved by Diaphragmatic Ultrasound Associated With the Rapid Shallow Breathing Index</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>CODEX</t>
+        </is>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT03497078</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT03829293</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Comparison of Image Quality Between New Collimator LEHRS (General Electric - GE Healthcare) vs Siemens LEHR on Bone Scintigraphy</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LEHRS</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>High-Flow Nasal Oxygenation Versus Standard Oxygenation in Gastrointestinal Endoscopy With Sedation. A Prospective Multicenter Randomized Study</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ODEPHI</t>
+        </is>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -969,32 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT04609969</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>NCT03689309</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Diagnostic Performance Evaluation of a Novel SARS-CoV-2 (COVID-19) Antigen Detection Test on Nasopharyngeal Specimens i</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>COVID-VIRO</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>High Flow Oxygen During Spontaneous Breathing Trial in Patients With High Weaning Risk Failure: Impact on the Weaning Course at D7 From the First Spontaneous Breathing Trial. A Pilot Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ObiWEAN</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1006,32 +1081,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>NCT04137302</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Administration of Hydrocortisone in Young Healthy Male Volunteers: Determination of Biomarkers for Distinguishing Between Local and Systemic Pathways</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>H-CORT</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1043,70 +1123,80 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>NCT03849508</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Randomized, Double-blind, Controlled Clinical Trial for Comparison of Continuous Phenylephrine Versus Norepinephrine Infusion for Maintenance of Hemodynamic Stability During Cesarean Section Under Spinal Anesthesia</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>PHENAD</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
         <v>1</v>
       </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT03568695</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT03586492</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ISTPOOL</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>SPECT Myocardial Perfusion Reserve Using a Cadmium Zinc Telluride (CZT) Camera in Cardiovascular Risk Stratification and Ischemia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CFR-OR</t>
+        </is>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1117,70 +1207,80 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT03586492</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT04609969</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>SPECT Myocardial Perfusion Reserve Using a Cadmium Zinc Telluride (CZT) Camera in Cardiovascular Risk Stratification and Ischemia</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>CFR-OR</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Diagnostic Performance Evaluation of a Novel SARS-CoV-2 (COVID-19) Antigen Detection Test on Nasopharyngeal Specimens i</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>COVID-VIRO</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT03689309</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT03568695</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>High Flow Oxygen During Spontaneous Breathing Trial in Patients With High Weaning Risk Failure: Impact on the Weaning Course at D7 From the First Spontaneous Breathing Trial. A Pilot Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>ObiWEAN</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
+          <t>Detection of Chlamydia Trachomatis, Neisseria Gonorrhoeae and Mycoplasma Genitalium by Real-time Multiplex Polymerase Chain Reaction After Pooling Pharyngeal, Anorectal and Urinary Samples, in Men Who Have Sex With Men</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ISTPOOL</t>
+        </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1191,32 +1291,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT04704349</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT04757844</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Latest Imaging SPECT System Evaluation Phase 1</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LISSE1</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>The Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Young Healthy Adults</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>AttNIRS</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1228,32 +1333,37 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>NCT04045444</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Physical Activity Level and Cerebral Oxygenation During Gait in Old People</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>OXYSENIOR</t>
         </is>
       </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1265,32 +1375,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT04269382</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT05050968</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>PANIC</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ACTIBARIA</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1302,32 +1417,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT04738851</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT04704349</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ARTHEMIRS</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Latest Imaging SPECT System Evaluation Phase 1</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>LISSE1</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1339,32 +1459,37 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT04757844</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT04738851</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>The Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Young Healthy Adults</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>AttNIRS</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
+          <t>ARTHEMIRS: Assessment of Brain Activation During Different Mirror Therapy Tasks Using fNIRS Technology</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>ARTHEMIRS</t>
+        </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1376,32 +1501,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT04629937</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT04269382</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Clinical Evaluation of a Multipurpose CZT Camera in Gated Tomographic Radionuclide Angiography: a Head to Head Comparison With a Cardiac Dedicated CZT Device</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>STARGAC</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
+          <t>Prospective, Multi-center Evaluation of the Accuracy of Non-invasive Measurement of Blood Pressure Using an Arm, Calf and Finger Cuff.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>PANIC</t>
+        </is>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1413,32 +1543,37 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT05050968</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT04629937</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Effects of Controlled Physical Activity on the Fitness, Body Composition and Quality of Life of Obese Women Undergoing Bariatric Surgery</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ACTIBARIA</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Clinical Evaluation of a Multipurpose CZT Camera in Gated Tomographic Radionuclide Angiography: a Head to Head Comparison With a Cardiac Dedicated CZT Device</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>STARGAC</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1450,107 +1585,122 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT04952766</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT03326830</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>EREVA</t>
-        </is>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
+          <t>Prehospital High-Flow Nasal Oxygen Therapy in Patients With Acute Hypoxemic Respiratory Failure: A Randomized, Open-label, Bi-center, Pilot Study</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>PRHOXY-1</t>
+        </is>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
       <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT05428917</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT04750720</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of Laterality on Cerebral Activation During a Motor Task of the Upper Limb Using fNIRS Technology in Healthy Subjects</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Lateralinirs</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Study of the Kinetics of COVID-19 Antibodies for 24 Months in Patients With Confirmed SARS-CoV-2 Infection According to the Clinical Severity of the Infection.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ABCOVID</t>
+        </is>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT04363463</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT02247752</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Impact of Prone Position in Patients Under Spontaneous Breathing on Intubation or Non-invasive Ventilation or Death Incidence During COVID-19 Acute Respiratory Distress</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PROVID-19</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
+          <t>Follow-up of HBsAg Inactive Carriers Study</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>PIBAC</t>
+        </is>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1561,32 +1711,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT05298943</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NCT04952766</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ExoNIRS</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Study Evaluating SARS-CoV-2 (COVID-19) Humoral Response After BNT162b2 Vaccine in Immunocompromised Adults Compared to Healthy Adults</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>EREVA</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1598,32 +1753,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02247752</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT05428917</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Follow-up of HBsAg Inactive Carriers Study</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PIBAC</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of Laterality on Cerebral Activation During a Motor Task of the Upper Limb Using fNIRS Technology in Healthy Subjects</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Lateralinirs</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1635,32 +1795,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT03326830</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT05298943</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Prehospital High-Flow Nasal Oxygen Therapy in Patients With Acute Hypoxemic Respiratory Failure: A Randomized, Open-label, Bi-center, Pilot Study</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>PRHOXY-1</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Relation Between Cortical Activation and Graded Force Level During Robot-assistance Walking in Healthy People : A Functional Near-infrared Spectroscopy Neuroimaging Study.</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ExoNIRS</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1672,27 +1837,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT04750720</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT04363463</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Study of the Kinetics of COVID-19 Antibodies for 24 Months in Patients With Confirmed SARS-CoV-2 Infection According to the Clinical Severity of the Infection.</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>ABCOVID</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>1</v>
+          <t>Impact of Prone Position in Patients Under Spontaneous Breathing on Intubation or Non-invasive Ventilation or Death Incidence During COVID-19 Acute Respiratory Distress</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>PROVID-19</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>1</v>
@@ -1700,6 +1867,9 @@
       <c r="I34" t="b">
         <v>1</v>
       </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1709,33 +1879,38 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT03400982</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT04624568</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Reference Curve on Bone Mineral Density in Men</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>COURDO2</t>
-        </is>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
+          <t>Papilocare®: Effects on Regression of Histologically Confirmed Cervical Intraepithelial Lesions 1 and Tolerance.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>PAPILOCARE</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1746,32 +1921,37 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT05469841</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT04882930</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Pupillometry and Nociception Level Index (NOL-index) for the Evaluation of Pain in Intensive Care Unit. Prospective Study in Two Centers</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>NOCI-ICU</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Reproducibility of fNIRS Parameters During Walking in Stroke Patients and Healthy Subjects</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>REPROXY</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1783,32 +1963,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT05306249</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT03400982</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Effects of Cannabidiol (CBD) on the Activation of Autophagy and Inflammation Genes, Functional Consequences in Virologically Controlled HIV-infected Patients</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GALIG-CBD</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Reference Curve on Bone Mineral Density in Men</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>COURDO2</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1820,32 +2005,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT05669157</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT05306249</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DARIO</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Effects of Cannabidiol (CBD) on the Activation of Autophagy and Inflammation Genes, Functional Consequences in Virologically Controlled HIV-infected Patients</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>GALIG-CBD</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1857,33 +2047,38 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT04624568</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT05669157</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Papilocare®: Effects on Regression of Histologically Confirmed Cervical Intraepithelial Lesions 1 and Tolerance.</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>PAPILOCARE</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>X-rays Trauma Request's by the Triage And Intake Nurse Intake and Referral Nurse: X-TRAIN Study</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>DARIO</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1894,32 +2089,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NCT04882930</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NCT05469841</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Reproducibility of fNIRS Parameters During Walking in Stroke Patients and Healthy Subjects</t>
-        </is>
-      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>REPROXY</t>
-        </is>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
+          <t>Pupillometry and Nociception Level Index (NOL-index) for the Evaluation of Pain in Intensive Care Unit. Prospective Study in Two Centers</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NOCI-ICU</t>
+        </is>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1931,32 +2131,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT06296225</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT05073874</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Effect of Vibratory Tendon Stimulation on Muscle Fatigue in the Acute Post-stroke Phase : Vibramain1</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VIBRAMAIN1</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Older Adults and Patients With Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>AttPark</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1968,32 +2173,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NCT05433168</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NCT05916274</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
-        </is>
-      </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>SFASPA</t>
-        </is>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
+          <t>Pro-inflammatory Role of Extracellular DNA in Inflammatory Bowel Disease in Children: Study of the cGAS-STING Pathway</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>ROXANE</t>
+        </is>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2005,32 +2215,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT05916274</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT06025370</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Pro-inflammatory Role of Extracellular DNA in Inflammatory Bowel Disease in Children: Study of the cGAS-STING Pathway</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>ROXANE</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>HEALTHY-PRONE</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2042,32 +2257,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>NCT05872438</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Evaluation of Multisite Sampling to Detect C. Trachomatis or N. Gonorrheae Compared With Vaginal Sampling in Women at Risk for Sexually Transmitted Infections (STI)</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>SIST'RS</t>
         </is>
       </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2079,32 +2299,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT04446559</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT05950178</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Effect of " Sitting in a Chair " Versus " Conventional Semi-recumbent In-bed Position " on the Oxygenation Level for ICU Non-sedated Patients</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>FALCON</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Validation of Apnea Test Conducted Using High-flow Oxygen Therapy in Patients With Clinical Brain Death</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>APNEAFLOW</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2116,32 +2341,37 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT06025370</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT06296225</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Measurement of Pressures Generated During Different Prone Positions in Healthy Volunteers</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>HEALTHY-PRONE</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Effect of Vibratory Tendon Stimulation on Muscle Fatigue in the Acute Post-stroke Phase : Vibramain1</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>VIBRAMAIN1</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2153,32 +2383,37 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT05073874</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT05433168</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Effects of Different Attentional Focus During Walking on Prefrontal Cortical Activation in Older Adults and Patients With Parkinson's Disease</t>
-        </is>
-      </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AttPark</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
+          <t>Randomized Cross-over Pilot Study Evaluating the Effectiveness of Shiatsu on Fatigue in Patients With Axial Spondyloarthritis</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>SFASPA</t>
+        </is>
       </c>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2190,32 +2425,37 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT05950178</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT05952180</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Validation of Apnea Test Conducted Using High-flow Oxygen Therapy in Patients With Clinical Brain Death</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>APNEAFLOW</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Effect of Virtual Reality Combined With Cycloergometer Versus Conventional Cycloergometer on Distance for ICU Non-sedated Participants: Prospective Randomized Controlled Trial</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>CYCLOREA</t>
+        </is>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
       <c r="I48" t="b">
+        <v>0</v>
+      </c>
+      <c r="J48" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2227,32 +2467,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT05952180</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT04446559</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Effect of Virtual Reality Combined With Cycloergometer Versus Conventional Cycloergometer on Distance for ICU Non-sedated Participants: Prospective Randomized Controlled Trial</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>CYCLOREA</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Effect of " Sitting in a Chair " Versus " Conventional Semi-recumbent In-bed Position " on the Oxygenation Level for ICU Non-sedated Patients</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>FALCON</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
+++ b/publipostage/04yvax419/liste_essais_cliniques_identifies_04yvax419.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -694,6 +719,11 @@
       <c r="J6" t="b">
         <v>0</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -736,6 +766,11 @@
       <c r="J7" t="b">
         <v>0</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -904,6 +954,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -946,6 +1001,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -988,6 +1048,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1030,6 +1095,11 @@
       <c r="J14" t="b">
         <v>1</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1072,6 +1142,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1114,6 +1189,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1156,6 +1236,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1198,6 +1283,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1240,6 +1330,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1282,6 +1377,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1324,6 +1424,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1366,6 +1471,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1408,6 +1518,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1450,6 +1565,11 @@
       <c r="J24" t="b">
         <v>0</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1492,6 +1612,11 @@
       <c r="J25" t="b">
         <v>0</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1534,6 +1659,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1576,6 +1706,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1618,6 +1753,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1660,6 +1800,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1702,6 +1847,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1744,6 +1894,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1786,6 +1941,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1828,6 +1988,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1870,6 +2035,11 @@
       <c r="J34" t="b">
         <v>1</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1912,6 +2082,11 @@
       <c r="J35" t="b">
         <v>1</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1954,6 +2129,11 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1996,6 +2176,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2038,6 +2223,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2080,6 +2270,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2122,6 +2317,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2164,6 +2364,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2206,6 +2411,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2248,6 +2458,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2290,6 +2505,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2332,6 +2552,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2374,6 +2599,11 @@
       <c r="J46" t="b">
         <v>0</v>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2416,6 +2646,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2458,6 +2693,11 @@
       <c r="J48" t="b">
         <v>0</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2499,6 +2739,11 @@
       </c>
       <c r="J49" t="b">
         <v>0</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
   </sheetData>
